--- a/Doğrusal Modellemeye Giriş/Doğrusal Modellemeye Giriş.xlsx
+++ b/Doğrusal Modellemeye Giriş/Doğrusal Modellemeye Giriş.xlsx
@@ -8,321 +8,450 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\onur.bilgic\Desktop\00_Onur_Bilgiç\08_Education\08_Optimization\OptimizationStudyGroup\optimization_study\Doğrusal Modellemeye Giriş\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808A9E91-F0E1-44DB-BB39-5E1C4AC52322}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{318D6D37-253C-4DBC-B772-E593E1F7D098}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{0A657B8E-1978-41E3-9C56-C4304CCBE8B5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2 (2)" sheetId="5" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
-    <sheet name="Sheet1 (3)" sheetId="3" r:id="rId4"/>
-    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId5"/>
+    <sheet name="Sheet3 (3)" sheetId="8" r:id="rId1"/>
+    <sheet name="Sheet3 (2)" sheetId="7" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="6" r:id="rId3"/>
+    <sheet name="Sheet2 (2)" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId6"/>
+    <sheet name="Sheet1 (3)" sheetId="3" r:id="rId7"/>
+    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="2" hidden="1">Sheet1!$E$6:$K$7</definedName>
-    <definedName name="solver_adj" localSheetId="4" hidden="1">'Sheet1 (2)'!$H$6:$N$8</definedName>
-    <definedName name="solver_adj" localSheetId="3" hidden="1">'Sheet1 (3)'!$H$6:$N$6</definedName>
+    <definedName name="solver_adj" localSheetId="5" hidden="1">Sheet1!$E$6:$K$7</definedName>
+    <definedName name="solver_adj" localSheetId="7" hidden="1">'Sheet1 (2)'!$H$6:$N$8</definedName>
+    <definedName name="solver_adj" localSheetId="6" hidden="1">'Sheet1 (3)'!$H$6:$N$6</definedName>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">Sheet3!$D$3:$D$6</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">'Sheet3 (2)'!$C$16:$D$17</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">'Sheet3 (3)'!$C$16:$D$17</definedName>
+    <definedName name="solver_cvg" localSheetId="5" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="7" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="6" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
-    <definedName name="solver_cvg" localSheetId="4" hidden="1">0.0001</definedName>
-    <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_drv" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_eng" localSheetId="4" hidden="1">2</definedName>
-    <definedName name="solver_eng" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_est" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_est" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_est" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="5" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="7" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="6" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
-    <definedName name="solver_itr" localSheetId="4" hidden="1">2147483647</definedName>
-    <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs0" localSheetId="4" hidden="1">'Sheet1 (2)'!$K$13:$K$19</definedName>
-    <definedName name="solver_lhs0" localSheetId="3" hidden="1">'Sheet1 (3)'!$K$13:$K$19</definedName>
-    <definedName name="solver_lhs1" localSheetId="2" hidden="1">Sheet1!$E$6:$K$7</definedName>
-    <definedName name="solver_lhs1" localSheetId="4" hidden="1">'Sheet1 (2)'!$C$13:$C$19</definedName>
-    <definedName name="solver_lhs1" localSheetId="3" hidden="1">'Sheet1 (3)'!$C$13:$C$19</definedName>
-    <definedName name="solver_lhs10" localSheetId="2" hidden="1">Sheet1!$E$11</definedName>
-    <definedName name="solver_lhs10" localSheetId="4" hidden="1">'Sheet1 (2)'!$H$14</definedName>
-    <definedName name="solver_lhs10" localSheetId="3" hidden="1">'Sheet1 (3)'!$H$14</definedName>
-    <definedName name="solver_lhs11" localSheetId="2" hidden="1">Sheet1!$E$11</definedName>
-    <definedName name="solver_lhs11" localSheetId="4" hidden="1">'Sheet1 (2)'!$H$14</definedName>
-    <definedName name="solver_lhs11" localSheetId="3" hidden="1">'Sheet1 (3)'!$H$14</definedName>
-    <definedName name="solver_lhs12" localSheetId="2" hidden="1">Sheet1!$E$12</definedName>
-    <definedName name="solver_lhs12" localSheetId="4" hidden="1">'Sheet1 (2)'!$H$15</definedName>
-    <definedName name="solver_lhs12" localSheetId="3" hidden="1">'Sheet1 (3)'!$H$15</definedName>
-    <definedName name="solver_lhs13" localSheetId="2" hidden="1">Sheet1!$E$13</definedName>
-    <definedName name="solver_lhs13" localSheetId="4" hidden="1">'Sheet1 (2)'!$H$16</definedName>
-    <definedName name="solver_lhs13" localSheetId="3" hidden="1">'Sheet1 (3)'!$H$16</definedName>
-    <definedName name="solver_lhs14" localSheetId="2" hidden="1">Sheet1!$E$13</definedName>
-    <definedName name="solver_lhs14" localSheetId="4" hidden="1">'Sheet1 (2)'!$H$16</definedName>
-    <definedName name="solver_lhs14" localSheetId="3" hidden="1">'Sheet1 (3)'!$H$16</definedName>
-    <definedName name="solver_lhs15" localSheetId="2" hidden="1">Sheet1!$E$13</definedName>
-    <definedName name="solver_lhs15" localSheetId="4" hidden="1">'Sheet1 (2)'!$H$16</definedName>
-    <definedName name="solver_lhs15" localSheetId="3" hidden="1">'Sheet1 (3)'!$H$16</definedName>
-    <definedName name="solver_lhs16" localSheetId="2" hidden="1">Sheet1!$E$14</definedName>
-    <definedName name="solver_lhs16" localSheetId="4" hidden="1">'Sheet1 (2)'!$H$17</definedName>
-    <definedName name="solver_lhs16" localSheetId="3" hidden="1">'Sheet1 (3)'!$H$17</definedName>
-    <definedName name="solver_lhs17" localSheetId="2" hidden="1">Sheet1!$E$14</definedName>
-    <definedName name="solver_lhs17" localSheetId="4" hidden="1">'Sheet1 (2)'!$H$17</definedName>
-    <definedName name="solver_lhs17" localSheetId="3" hidden="1">'Sheet1 (3)'!$H$17</definedName>
-    <definedName name="solver_lhs18" localSheetId="2" hidden="1">Sheet1!$E$14</definedName>
-    <definedName name="solver_lhs18" localSheetId="4" hidden="1">'Sheet1 (2)'!$H$17</definedName>
-    <definedName name="solver_lhs18" localSheetId="3" hidden="1">'Sheet1 (3)'!$H$17</definedName>
-    <definedName name="solver_lhs19" localSheetId="2" hidden="1">Sheet1!$H$15</definedName>
-    <definedName name="solver_lhs19" localSheetId="4" hidden="1">'Sheet1 (2)'!$K$18</definedName>
-    <definedName name="solver_lhs19" localSheetId="3" hidden="1">'Sheet1 (3)'!$K$18</definedName>
-    <definedName name="solver_lhs2" localSheetId="2" hidden="1">Sheet1!$H$10:$H$16</definedName>
-    <definedName name="solver_lhs2" localSheetId="4" hidden="1">'Sheet1 (2)'!$H$6:$N$6</definedName>
-    <definedName name="solver_lhs2" localSheetId="3" hidden="1">'Sheet1 (3)'!$O$6</definedName>
-    <definedName name="solver_lhs20" localSheetId="2" hidden="1">Sheet1!$H$16</definedName>
-    <definedName name="solver_lhs20" localSheetId="4" hidden="1">'Sheet1 (2)'!$K$19</definedName>
-    <definedName name="solver_lhs20" localSheetId="3" hidden="1">'Sheet1 (3)'!$K$19</definedName>
-    <definedName name="solver_lhs21" localSheetId="2" hidden="1">Sheet1!$H$10</definedName>
-    <definedName name="solver_lhs21" localSheetId="4" hidden="1">'Sheet1 (2)'!$K$13</definedName>
-    <definedName name="solver_lhs21" localSheetId="3" hidden="1">'Sheet1 (3)'!$K$13</definedName>
-    <definedName name="solver_lhs22" localSheetId="2" hidden="1">Sheet1!$H$11</definedName>
-    <definedName name="solver_lhs22" localSheetId="4" hidden="1">'Sheet1 (2)'!$K$14</definedName>
-    <definedName name="solver_lhs22" localSheetId="3" hidden="1">'Sheet1 (3)'!$K$14</definedName>
-    <definedName name="solver_lhs23" localSheetId="2" hidden="1">Sheet1!$H$12</definedName>
-    <definedName name="solver_lhs23" localSheetId="4" hidden="1">'Sheet1 (2)'!$K$15</definedName>
-    <definedName name="solver_lhs23" localSheetId="3" hidden="1">'Sheet1 (3)'!$K$15</definedName>
-    <definedName name="solver_lhs24" localSheetId="2" hidden="1">Sheet1!$H$13</definedName>
-    <definedName name="solver_lhs24" localSheetId="4" hidden="1">'Sheet1 (2)'!$K$16</definedName>
-    <definedName name="solver_lhs24" localSheetId="3" hidden="1">'Sheet1 (3)'!$K$16</definedName>
-    <definedName name="solver_lhs3" localSheetId="2" hidden="1">Sheet1!$M$7</definedName>
-    <definedName name="solver_lhs3" localSheetId="4" hidden="1">'Sheet1 (2)'!$H$6:$N$6</definedName>
-    <definedName name="solver_lhs3" localSheetId="3" hidden="1">'Sheet1 (3)'!$H$6:$N$6</definedName>
-    <definedName name="solver_lhs4" localSheetId="2" hidden="1">Sheet1!$E$16</definedName>
-    <definedName name="solver_lhs4" localSheetId="4" hidden="1">'Sheet1 (2)'!$H$6:$N$8</definedName>
-    <definedName name="solver_lhs4" localSheetId="3" hidden="1">'Sheet1 (3)'!$H$6:$N$8</definedName>
-    <definedName name="solver_lhs5" localSheetId="2" hidden="1">Sheet1!$E$10</definedName>
-    <definedName name="solver_lhs5" localSheetId="4" hidden="1">'Sheet1 (2)'!$H$13</definedName>
-    <definedName name="solver_lhs5" localSheetId="3" hidden="1">'Sheet1 (3)'!$H$13</definedName>
-    <definedName name="solver_lhs6" localSheetId="2" hidden="1">Sheet1!$E$10</definedName>
-    <definedName name="solver_lhs6" localSheetId="4" hidden="1">'Sheet1 (2)'!$H$13</definedName>
-    <definedName name="solver_lhs6" localSheetId="3" hidden="1">'Sheet1 (3)'!$H$13</definedName>
-    <definedName name="solver_lhs7" localSheetId="2" hidden="1">Sheet1!$E$10</definedName>
-    <definedName name="solver_lhs7" localSheetId="4" hidden="1">'Sheet1 (2)'!$H$13</definedName>
-    <definedName name="solver_lhs7" localSheetId="3" hidden="1">'Sheet1 (3)'!$H$13</definedName>
-    <definedName name="solver_lhs8" localSheetId="2" hidden="1">Sheet1!$E$10:$E$16</definedName>
-    <definedName name="solver_lhs8" localSheetId="4" hidden="1">'Sheet1 (2)'!$H$13:$H$19</definedName>
-    <definedName name="solver_lhs8" localSheetId="3" hidden="1">'Sheet1 (3)'!$H$13:$H$19</definedName>
-    <definedName name="solver_lhs9" localSheetId="2" hidden="1">Sheet1!$E$11</definedName>
-    <definedName name="solver_lhs9" localSheetId="4" hidden="1">'Sheet1 (2)'!$H$14</definedName>
-    <definedName name="solver_lhs9" localSheetId="3" hidden="1">'Sheet1 (3)'!$H$14</definedName>
+    <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs0" localSheetId="7" hidden="1">'Sheet1 (2)'!$K$13:$K$19</definedName>
+    <definedName name="solver_lhs0" localSheetId="6" hidden="1">'Sheet1 (3)'!$K$13:$K$19</definedName>
+    <definedName name="solver_lhs1" localSheetId="5" hidden="1">Sheet1!$E$6:$K$7</definedName>
+    <definedName name="solver_lhs1" localSheetId="7" hidden="1">'Sheet1 (2)'!$C$13:$C$19</definedName>
+    <definedName name="solver_lhs1" localSheetId="6" hidden="1">'Sheet1 (3)'!$C$13:$C$19</definedName>
+    <definedName name="solver_lhs1" localSheetId="2" hidden="1">Sheet3!$D$6</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">'Sheet3 (2)'!$C$16:$D$17</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">'Sheet3 (3)'!$C$16:$D$17</definedName>
+    <definedName name="solver_lhs10" localSheetId="5" hidden="1">Sheet1!$E$11</definedName>
+    <definedName name="solver_lhs10" localSheetId="7" hidden="1">'Sheet1 (2)'!$H$14</definedName>
+    <definedName name="solver_lhs10" localSheetId="6" hidden="1">'Sheet1 (3)'!$H$14</definedName>
+    <definedName name="solver_lhs11" localSheetId="5" hidden="1">Sheet1!$E$11</definedName>
+    <definedName name="solver_lhs11" localSheetId="7" hidden="1">'Sheet1 (2)'!$H$14</definedName>
+    <definedName name="solver_lhs11" localSheetId="6" hidden="1">'Sheet1 (3)'!$H$14</definedName>
+    <definedName name="solver_lhs12" localSheetId="5" hidden="1">Sheet1!$E$12</definedName>
+    <definedName name="solver_lhs12" localSheetId="7" hidden="1">'Sheet1 (2)'!$H$15</definedName>
+    <definedName name="solver_lhs12" localSheetId="6" hidden="1">'Sheet1 (3)'!$H$15</definedName>
+    <definedName name="solver_lhs13" localSheetId="5" hidden="1">Sheet1!$E$13</definedName>
+    <definedName name="solver_lhs13" localSheetId="7" hidden="1">'Sheet1 (2)'!$H$16</definedName>
+    <definedName name="solver_lhs13" localSheetId="6" hidden="1">'Sheet1 (3)'!$H$16</definedName>
+    <definedName name="solver_lhs14" localSheetId="5" hidden="1">Sheet1!$E$13</definedName>
+    <definedName name="solver_lhs14" localSheetId="7" hidden="1">'Sheet1 (2)'!$H$16</definedName>
+    <definedName name="solver_lhs14" localSheetId="6" hidden="1">'Sheet1 (3)'!$H$16</definedName>
+    <definedName name="solver_lhs15" localSheetId="5" hidden="1">Sheet1!$E$13</definedName>
+    <definedName name="solver_lhs15" localSheetId="7" hidden="1">'Sheet1 (2)'!$H$16</definedName>
+    <definedName name="solver_lhs15" localSheetId="6" hidden="1">'Sheet1 (3)'!$H$16</definedName>
+    <definedName name="solver_lhs16" localSheetId="5" hidden="1">Sheet1!$E$14</definedName>
+    <definedName name="solver_lhs16" localSheetId="7" hidden="1">'Sheet1 (2)'!$H$17</definedName>
+    <definedName name="solver_lhs16" localSheetId="6" hidden="1">'Sheet1 (3)'!$H$17</definedName>
+    <definedName name="solver_lhs17" localSheetId="5" hidden="1">Sheet1!$E$14</definedName>
+    <definedName name="solver_lhs17" localSheetId="7" hidden="1">'Sheet1 (2)'!$H$17</definedName>
+    <definedName name="solver_lhs17" localSheetId="6" hidden="1">'Sheet1 (3)'!$H$17</definedName>
+    <definedName name="solver_lhs18" localSheetId="5" hidden="1">Sheet1!$E$14</definedName>
+    <definedName name="solver_lhs18" localSheetId="7" hidden="1">'Sheet1 (2)'!$H$17</definedName>
+    <definedName name="solver_lhs18" localSheetId="6" hidden="1">'Sheet1 (3)'!$H$17</definedName>
+    <definedName name="solver_lhs19" localSheetId="5" hidden="1">Sheet1!$H$15</definedName>
+    <definedName name="solver_lhs19" localSheetId="7" hidden="1">'Sheet1 (2)'!$K$18</definedName>
+    <definedName name="solver_lhs19" localSheetId="6" hidden="1">'Sheet1 (3)'!$K$18</definedName>
+    <definedName name="solver_lhs2" localSheetId="5" hidden="1">Sheet1!$H$10:$H$16</definedName>
+    <definedName name="solver_lhs2" localSheetId="7" hidden="1">'Sheet1 (2)'!$H$6:$N$6</definedName>
+    <definedName name="solver_lhs2" localSheetId="6" hidden="1">'Sheet1 (3)'!$O$6</definedName>
+    <definedName name="solver_lhs2" localSheetId="2" hidden="1">Sheet3!$D$6</definedName>
+    <definedName name="solver_lhs2" localSheetId="1" hidden="1">'Sheet3 (2)'!$C$18:$D$18</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">'Sheet3 (3)'!$C$16:$D$17</definedName>
+    <definedName name="solver_lhs20" localSheetId="5" hidden="1">Sheet1!$H$16</definedName>
+    <definedName name="solver_lhs20" localSheetId="7" hidden="1">'Sheet1 (2)'!$K$19</definedName>
+    <definedName name="solver_lhs20" localSheetId="6" hidden="1">'Sheet1 (3)'!$K$19</definedName>
+    <definedName name="solver_lhs21" localSheetId="5" hidden="1">Sheet1!$H$10</definedName>
+    <definedName name="solver_lhs21" localSheetId="7" hidden="1">'Sheet1 (2)'!$K$13</definedName>
+    <definedName name="solver_lhs21" localSheetId="6" hidden="1">'Sheet1 (3)'!$K$13</definedName>
+    <definedName name="solver_lhs22" localSheetId="5" hidden="1">Sheet1!$H$11</definedName>
+    <definedName name="solver_lhs22" localSheetId="7" hidden="1">'Sheet1 (2)'!$K$14</definedName>
+    <definedName name="solver_lhs22" localSheetId="6" hidden="1">'Sheet1 (3)'!$K$14</definedName>
+    <definedName name="solver_lhs23" localSheetId="5" hidden="1">Sheet1!$H$12</definedName>
+    <definedName name="solver_lhs23" localSheetId="7" hidden="1">'Sheet1 (2)'!$K$15</definedName>
+    <definedName name="solver_lhs23" localSheetId="6" hidden="1">'Sheet1 (3)'!$K$15</definedName>
+    <definedName name="solver_lhs24" localSheetId="5" hidden="1">Sheet1!$H$13</definedName>
+    <definedName name="solver_lhs24" localSheetId="7" hidden="1">'Sheet1 (2)'!$K$16</definedName>
+    <definedName name="solver_lhs24" localSheetId="6" hidden="1">'Sheet1 (3)'!$K$16</definedName>
+    <definedName name="solver_lhs3" localSheetId="5" hidden="1">Sheet1!$M$7</definedName>
+    <definedName name="solver_lhs3" localSheetId="7" hidden="1">'Sheet1 (2)'!$H$6:$N$6</definedName>
+    <definedName name="solver_lhs3" localSheetId="6" hidden="1">'Sheet1 (3)'!$H$6:$N$6</definedName>
+    <definedName name="solver_lhs3" localSheetId="2" hidden="1">Sheet3!$D$7</definedName>
+    <definedName name="solver_lhs3" localSheetId="1" hidden="1">'Sheet3 (2)'!$E$24:$E$25</definedName>
+    <definedName name="solver_lhs3" localSheetId="0" hidden="1">'Sheet3 (3)'!$C$18:$D$18</definedName>
+    <definedName name="solver_lhs4" localSheetId="5" hidden="1">Sheet1!$E$16</definedName>
+    <definedName name="solver_lhs4" localSheetId="7" hidden="1">'Sheet1 (2)'!$H$6:$N$8</definedName>
+    <definedName name="solver_lhs4" localSheetId="6" hidden="1">'Sheet1 (3)'!$H$6:$N$8</definedName>
+    <definedName name="solver_lhs4" localSheetId="2" hidden="1">Sheet3!$E$4</definedName>
+    <definedName name="solver_lhs4" localSheetId="1" hidden="1">'Sheet3 (2)'!#REF!</definedName>
+    <definedName name="solver_lhs4" localSheetId="0" hidden="1">'Sheet3 (3)'!#REF!</definedName>
+    <definedName name="solver_lhs5" localSheetId="5" hidden="1">Sheet1!$E$10</definedName>
+    <definedName name="solver_lhs5" localSheetId="7" hidden="1">'Sheet1 (2)'!$H$13</definedName>
+    <definedName name="solver_lhs5" localSheetId="6" hidden="1">'Sheet1 (3)'!$H$13</definedName>
+    <definedName name="solver_lhs5" localSheetId="2" hidden="1">Sheet3!$E$4</definedName>
+    <definedName name="solver_lhs5" localSheetId="1" hidden="1">'Sheet3 (2)'!#REF!</definedName>
+    <definedName name="solver_lhs5" localSheetId="0" hidden="1">'Sheet3 (3)'!#REF!</definedName>
+    <definedName name="solver_lhs6" localSheetId="5" hidden="1">Sheet1!$E$10</definedName>
+    <definedName name="solver_lhs6" localSheetId="7" hidden="1">'Sheet1 (2)'!$H$13</definedName>
+    <definedName name="solver_lhs6" localSheetId="6" hidden="1">'Sheet1 (3)'!$H$13</definedName>
+    <definedName name="solver_lhs7" localSheetId="5" hidden="1">Sheet1!$E$10</definedName>
+    <definedName name="solver_lhs7" localSheetId="7" hidden="1">'Sheet1 (2)'!$H$13</definedName>
+    <definedName name="solver_lhs7" localSheetId="6" hidden="1">'Sheet1 (3)'!$H$13</definedName>
+    <definedName name="solver_lhs8" localSheetId="5" hidden="1">Sheet1!$E$10:$E$16</definedName>
+    <definedName name="solver_lhs8" localSheetId="7" hidden="1">'Sheet1 (2)'!$H$13:$H$19</definedName>
+    <definedName name="solver_lhs8" localSheetId="6" hidden="1">'Sheet1 (3)'!$H$13:$H$19</definedName>
+    <definedName name="solver_lhs9" localSheetId="5" hidden="1">Sheet1!$E$11</definedName>
+    <definedName name="solver_lhs9" localSheetId="7" hidden="1">'Sheet1 (2)'!$H$14</definedName>
+    <definedName name="solver_lhs9" localSheetId="6" hidden="1">'Sheet1 (3)'!$H$14</definedName>
+    <definedName name="solver_mip" localSheetId="5" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="7" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="6" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
-    <definedName name="solver_mip" localSheetId="4" hidden="1">2147483647</definedName>
-    <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="5" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="7" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="6" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
-    <definedName name="solver_mni" localSheetId="4" hidden="1">30</definedName>
-    <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="5" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="7" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="6" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
-    <definedName name="solver_mrt" localSheetId="4" hidden="1">0.075</definedName>
-    <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_msl" localSheetId="4" hidden="1">2</definedName>
-    <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_neg" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="5" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="7" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="6" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
-    <definedName name="solver_nod" localSheetId="4" hidden="1">2147483647</definedName>
-    <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="2" hidden="1">3</definedName>
-    <definedName name="solver_num" localSheetId="4" hidden="1">4</definedName>
-    <definedName name="solver_num" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="5" hidden="1">3</definedName>
+    <definedName name="solver_num" localSheetId="7" hidden="1">4</definedName>
+    <definedName name="solver_num" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="2" hidden="1">4</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_nwt" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_nwt" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="2" hidden="1">Sheet1!$E$2</definedName>
-    <definedName name="solver_opt" localSheetId="4" hidden="1">'Sheet1 (2)'!$H$2</definedName>
-    <definedName name="solver_opt" localSheetId="3" hidden="1">'Sheet1 (3)'!$H$2</definedName>
+    <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="5" hidden="1">Sheet1!$E$2</definedName>
+    <definedName name="solver_opt" localSheetId="7" hidden="1">'Sheet1 (2)'!$H$2</definedName>
+    <definedName name="solver_opt" localSheetId="6" hidden="1">'Sheet1 (3)'!$H$2</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">Sheet3!$E$7</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">'Sheet3 (2)'!$N$20</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">'Sheet3 (3)'!$P$20</definedName>
+    <definedName name="solver_pre" localSheetId="5" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="7" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="6" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
-    <definedName name="solver_pre" localSheetId="4" hidden="1">0.000001</definedName>
-    <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_rbv" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_rbv" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_rel0" localSheetId="4" hidden="1">3</definedName>
-    <definedName name="solver_rel0" localSheetId="3" hidden="1">3</definedName>
-    <definedName name="solver_rel1" localSheetId="2" hidden="1">4</definedName>
-    <definedName name="solver_rel1" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_rel10" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_rel10" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_rel10" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_rel11" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_rel11" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_rel11" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_rel12" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_rel12" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_rel12" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_rel13" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_rel13" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_rel13" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_rel14" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_rel14" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_rel14" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_rel15" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_rel15" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_rel15" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_rel16" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_rel16" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_rel16" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_rel17" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_rel17" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_rel17" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_rel18" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_rel18" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_rel18" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_rel19" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_rel19" localSheetId="4" hidden="1">2</definedName>
-    <definedName name="solver_rel19" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_rel2" localSheetId="2" hidden="1">3</definedName>
-    <definedName name="solver_rel2" localSheetId="4" hidden="1">3</definedName>
-    <definedName name="solver_rel2" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_rel20" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_rel20" localSheetId="4" hidden="1">2</definedName>
-    <definedName name="solver_rel20" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_rel21" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_rel21" localSheetId="4" hidden="1">2</definedName>
-    <definedName name="solver_rel21" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_rel22" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_rel22" localSheetId="4" hidden="1">2</definedName>
-    <definedName name="solver_rel22" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_rel23" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_rel23" localSheetId="4" hidden="1">2</definedName>
-    <definedName name="solver_rel23" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_rel24" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_rel24" localSheetId="4" hidden="1">2</definedName>
-    <definedName name="solver_rel24" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_rel3" localSheetId="2" hidden="1">3</definedName>
-    <definedName name="solver_rel3" localSheetId="4" hidden="1">3</definedName>
-    <definedName name="solver_rel3" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel0" localSheetId="7" hidden="1">3</definedName>
+    <definedName name="solver_rel0" localSheetId="6" hidden="1">3</definedName>
+    <definedName name="solver_rel1" localSheetId="5" hidden="1">4</definedName>
+    <definedName name="solver_rel1" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="1" hidden="1">4</definedName>
+    <definedName name="solver_rel1" localSheetId="0" hidden="1">4</definedName>
+    <definedName name="solver_rel10" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rel10" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_rel10" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_rel11" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rel11" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_rel11" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_rel12" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rel12" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_rel12" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_rel13" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rel13" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_rel13" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_rel14" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rel14" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_rel14" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_rel15" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rel15" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_rel15" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_rel16" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rel16" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_rel16" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_rel17" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rel17" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_rel17" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_rel18" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rel18" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_rel18" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_rel19" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_rel19" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_rel19" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_rel2" localSheetId="5" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="7" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_rel2" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel20" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_rel20" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_rel20" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_rel21" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_rel21" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_rel21" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_rel22" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_rel22" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_rel22" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_rel23" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_rel23" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_rel23" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_rel24" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_rel24" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_rel24" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_rel3" localSheetId="5" hidden="1">3</definedName>
+    <definedName name="solver_rel3" localSheetId="7" hidden="1">3</definedName>
+    <definedName name="solver_rel3" localSheetId="6" hidden="1">3</definedName>
+    <definedName name="solver_rel3" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rel3" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel3" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel4" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rel4" localSheetId="7" hidden="1">4</definedName>
+    <definedName name="solver_rel4" localSheetId="6" hidden="1">4</definedName>
     <definedName name="solver_rel4" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_rel4" localSheetId="4" hidden="1">4</definedName>
-    <definedName name="solver_rel4" localSheetId="3" hidden="1">4</definedName>
+    <definedName name="solver_rel4" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel4" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel5" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rel5" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_rel5" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_rel5" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_rel5" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_rel5" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_rel6" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_rel6" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_rel6" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_rel7" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_rel7" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_rel7" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_rel8" localSheetId="2" hidden="1">3</definedName>
-    <definedName name="solver_rel8" localSheetId="4" hidden="1">3</definedName>
-    <definedName name="solver_rel8" localSheetId="3" hidden="1">3</definedName>
-    <definedName name="solver_rel9" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_rel9" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_rel9" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_rhs0" localSheetId="4" hidden="1">'Sheet1 (2)'!$G$13:$G$19</definedName>
-    <definedName name="solver_rhs0" localSheetId="3" hidden="1">'Sheet1 (3)'!$G$13:$G$19</definedName>
-    <definedName name="solver_rhs1" localSheetId="2" hidden="1">integer</definedName>
-    <definedName name="solver_rhs1" localSheetId="4" hidden="1">'Sheet1 (2)'!$D$13:$D$19</definedName>
-    <definedName name="solver_rhs1" localSheetId="3" hidden="1">'Sheet1 (3)'!$D$13:$D$19</definedName>
-    <definedName name="solver_rhs10" localSheetId="2" hidden="1">Sheet1!$F$16</definedName>
-    <definedName name="solver_rhs10" localSheetId="4" hidden="1">'Sheet1 (2)'!$I$19</definedName>
-    <definedName name="solver_rhs10" localSheetId="3" hidden="1">'Sheet1 (3)'!$I$19</definedName>
-    <definedName name="solver_rhs11" localSheetId="2" hidden="1">Sheet1!$F$10</definedName>
-    <definedName name="solver_rhs11" localSheetId="4" hidden="1">'Sheet1 (2)'!$I$13</definedName>
-    <definedName name="solver_rhs11" localSheetId="3" hidden="1">'Sheet1 (3)'!$I$13</definedName>
-    <definedName name="solver_rhs12" localSheetId="2" hidden="1">Sheet1!$F$10</definedName>
-    <definedName name="solver_rhs12" localSheetId="4" hidden="1">'Sheet1 (2)'!$I$13</definedName>
-    <definedName name="solver_rhs12" localSheetId="3" hidden="1">'Sheet1 (3)'!$I$13</definedName>
-    <definedName name="solver_rhs13" localSheetId="2" hidden="1">Sheet1!$E$14</definedName>
-    <definedName name="solver_rhs13" localSheetId="4" hidden="1">'Sheet1 (2)'!$H$17</definedName>
-    <definedName name="solver_rhs13" localSheetId="3" hidden="1">'Sheet1 (3)'!$H$17</definedName>
-    <definedName name="solver_rhs14" localSheetId="2" hidden="1">Sheet1!$F$11</definedName>
-    <definedName name="solver_rhs14" localSheetId="4" hidden="1">'Sheet1 (2)'!$I$14</definedName>
-    <definedName name="solver_rhs14" localSheetId="3" hidden="1">'Sheet1 (3)'!$I$14</definedName>
-    <definedName name="solver_rhs15" localSheetId="2" hidden="1">Sheet1!$F$12</definedName>
-    <definedName name="solver_rhs15" localSheetId="4" hidden="1">'Sheet1 (2)'!$I$15</definedName>
-    <definedName name="solver_rhs15" localSheetId="3" hidden="1">'Sheet1 (3)'!$I$15</definedName>
-    <definedName name="solver_rhs16" localSheetId="2" hidden="1">Sheet1!$E$15</definedName>
-    <definedName name="solver_rhs16" localSheetId="4" hidden="1">'Sheet1 (2)'!$H$18</definedName>
-    <definedName name="solver_rhs16" localSheetId="3" hidden="1">'Sheet1 (3)'!$H$18</definedName>
-    <definedName name="solver_rhs17" localSheetId="2" hidden="1">Sheet1!$F$12</definedName>
-    <definedName name="solver_rhs17" localSheetId="4" hidden="1">'Sheet1 (2)'!$I$15</definedName>
-    <definedName name="solver_rhs17" localSheetId="3" hidden="1">'Sheet1 (3)'!$I$15</definedName>
-    <definedName name="solver_rhs18" localSheetId="2" hidden="1">Sheet1!$F$13</definedName>
-    <definedName name="solver_rhs18" localSheetId="4" hidden="1">'Sheet1 (2)'!$I$16</definedName>
-    <definedName name="solver_rhs18" localSheetId="3" hidden="1">'Sheet1 (3)'!$I$16</definedName>
-    <definedName name="solver_rhs19" localSheetId="2" hidden="1">Sheet1!$H$16</definedName>
-    <definedName name="solver_rhs19" localSheetId="4" hidden="1">'Sheet1 (2)'!$K$19</definedName>
-    <definedName name="solver_rhs19" localSheetId="3" hidden="1">'Sheet1 (3)'!$K$19</definedName>
-    <definedName name="solver_rhs2" localSheetId="2" hidden="1">Sheet1!$D$10:$D$16</definedName>
-    <definedName name="solver_rhs2" localSheetId="4" hidden="1">'Sheet1 (2)'!$H$7:$N$7</definedName>
-    <definedName name="solver_rhs2" localSheetId="3" hidden="1">'Sheet1 (3)'!$P$6</definedName>
-    <definedName name="solver_rhs20" localSheetId="2" hidden="1">Sheet1!$H$10</definedName>
-    <definedName name="solver_rhs20" localSheetId="4" hidden="1">'Sheet1 (2)'!$K$13</definedName>
-    <definedName name="solver_rhs20" localSheetId="3" hidden="1">'Sheet1 (3)'!$K$13</definedName>
-    <definedName name="solver_rhs21" localSheetId="2" hidden="1">Sheet1!$H$11</definedName>
-    <definedName name="solver_rhs21" localSheetId="4" hidden="1">'Sheet1 (2)'!$K$14</definedName>
-    <definedName name="solver_rhs21" localSheetId="3" hidden="1">'Sheet1 (3)'!$K$14</definedName>
-    <definedName name="solver_rhs22" localSheetId="2" hidden="1">Sheet1!$H$12</definedName>
-    <definedName name="solver_rhs22" localSheetId="4" hidden="1">'Sheet1 (2)'!$K$15</definedName>
-    <definedName name="solver_rhs22" localSheetId="3" hidden="1">'Sheet1 (3)'!$K$15</definedName>
-    <definedName name="solver_rhs23" localSheetId="2" hidden="1">Sheet1!$H$13</definedName>
-    <definedName name="solver_rhs23" localSheetId="4" hidden="1">'Sheet1 (2)'!$K$16</definedName>
-    <definedName name="solver_rhs23" localSheetId="3" hidden="1">'Sheet1 (3)'!$K$16</definedName>
-    <definedName name="solver_rhs24" localSheetId="2" hidden="1">Sheet1!$H$14</definedName>
-    <definedName name="solver_rhs24" localSheetId="4" hidden="1">'Sheet1 (2)'!$K$17</definedName>
-    <definedName name="solver_rhs24" localSheetId="3" hidden="1">'Sheet1 (3)'!$K$17</definedName>
-    <definedName name="solver_rhs3" localSheetId="2" hidden="1">Sheet1!$N$6</definedName>
-    <definedName name="solver_rhs3" localSheetId="4" hidden="1">'Sheet1 (2)'!$H$8:$N$8</definedName>
-    <definedName name="solver_rhs3" localSheetId="3" hidden="1">'Sheet1 (3)'!$H$8:$N$8</definedName>
-    <definedName name="solver_rhs4" localSheetId="2" hidden="1">Sheet1!$F$14</definedName>
-    <definedName name="solver_rhs4" localSheetId="4" hidden="1">integer</definedName>
-    <definedName name="solver_rhs4" localSheetId="3" hidden="1">integer</definedName>
-    <definedName name="solver_rhs5" localSheetId="2" hidden="1">Sheet1!$E$11</definedName>
-    <definedName name="solver_rhs5" localSheetId="4" hidden="1">'Sheet1 (2)'!$H$14</definedName>
-    <definedName name="solver_rhs5" localSheetId="3" hidden="1">'Sheet1 (3)'!$H$14</definedName>
-    <definedName name="solver_rhs6" localSheetId="2" hidden="1">Sheet1!$F$15</definedName>
-    <definedName name="solver_rhs6" localSheetId="4" hidden="1">'Sheet1 (2)'!$I$18</definedName>
-    <definedName name="solver_rhs6" localSheetId="3" hidden="1">'Sheet1 (3)'!$I$18</definedName>
-    <definedName name="solver_rhs7" localSheetId="2" hidden="1">Sheet1!$F$16</definedName>
-    <definedName name="solver_rhs7" localSheetId="4" hidden="1">'Sheet1 (2)'!$I$19</definedName>
-    <definedName name="solver_rhs7" localSheetId="3" hidden="1">'Sheet1 (3)'!$I$19</definedName>
-    <definedName name="solver_rhs8" localSheetId="2" hidden="1">Sheet1!$C$10:$C$16</definedName>
-    <definedName name="solver_rhs8" localSheetId="4" hidden="1">'Sheet1 (2)'!$C$13:$C$19</definedName>
-    <definedName name="solver_rhs8" localSheetId="3" hidden="1">'Sheet1 (3)'!$C$13:$C$19</definedName>
-    <definedName name="solver_rhs9" localSheetId="2" hidden="1">Sheet1!$E$12</definedName>
-    <definedName name="solver_rhs9" localSheetId="4" hidden="1">'Sheet1 (2)'!$H$15</definedName>
-    <definedName name="solver_rhs9" localSheetId="3" hidden="1">'Sheet1 (3)'!$H$15</definedName>
+    <definedName name="solver_rel5" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel5" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel6" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rel6" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_rel6" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_rel7" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rel7" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_rel7" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_rel8" localSheetId="5" hidden="1">3</definedName>
+    <definedName name="solver_rel8" localSheetId="7" hidden="1">3</definedName>
+    <definedName name="solver_rel8" localSheetId="6" hidden="1">3</definedName>
+    <definedName name="solver_rel9" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rel9" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_rel9" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_rhs0" localSheetId="7" hidden="1">'Sheet1 (2)'!$G$13:$G$19</definedName>
+    <definedName name="solver_rhs0" localSheetId="6" hidden="1">'Sheet1 (3)'!$G$13:$G$19</definedName>
+    <definedName name="solver_rhs1" localSheetId="5" hidden="1">integer</definedName>
+    <definedName name="solver_rhs1" localSheetId="7" hidden="1">'Sheet1 (2)'!$D$13:$D$19</definedName>
+    <definedName name="solver_rhs1" localSheetId="6" hidden="1">'Sheet1 (3)'!$D$13:$D$19</definedName>
+    <definedName name="solver_rhs1" localSheetId="2" hidden="1">Sheet3!$D$3</definedName>
+    <definedName name="solver_rhs1" localSheetId="1" hidden="1">integer</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">integer</definedName>
+    <definedName name="solver_rhs10" localSheetId="5" hidden="1">Sheet1!$F$16</definedName>
+    <definedName name="solver_rhs10" localSheetId="7" hidden="1">'Sheet1 (2)'!$I$19</definedName>
+    <definedName name="solver_rhs10" localSheetId="6" hidden="1">'Sheet1 (3)'!$I$19</definedName>
+    <definedName name="solver_rhs11" localSheetId="5" hidden="1">Sheet1!$F$10</definedName>
+    <definedName name="solver_rhs11" localSheetId="7" hidden="1">'Sheet1 (2)'!$I$13</definedName>
+    <definedName name="solver_rhs11" localSheetId="6" hidden="1">'Sheet1 (3)'!$I$13</definedName>
+    <definedName name="solver_rhs12" localSheetId="5" hidden="1">Sheet1!$F$10</definedName>
+    <definedName name="solver_rhs12" localSheetId="7" hidden="1">'Sheet1 (2)'!$I$13</definedName>
+    <definedName name="solver_rhs12" localSheetId="6" hidden="1">'Sheet1 (3)'!$I$13</definedName>
+    <definedName name="solver_rhs13" localSheetId="5" hidden="1">Sheet1!$E$14</definedName>
+    <definedName name="solver_rhs13" localSheetId="7" hidden="1">'Sheet1 (2)'!$H$17</definedName>
+    <definedName name="solver_rhs13" localSheetId="6" hidden="1">'Sheet1 (3)'!$H$17</definedName>
+    <definedName name="solver_rhs14" localSheetId="5" hidden="1">Sheet1!$F$11</definedName>
+    <definedName name="solver_rhs14" localSheetId="7" hidden="1">'Sheet1 (2)'!$I$14</definedName>
+    <definedName name="solver_rhs14" localSheetId="6" hidden="1">'Sheet1 (3)'!$I$14</definedName>
+    <definedName name="solver_rhs15" localSheetId="5" hidden="1">Sheet1!$F$12</definedName>
+    <definedName name="solver_rhs15" localSheetId="7" hidden="1">'Sheet1 (2)'!$I$15</definedName>
+    <definedName name="solver_rhs15" localSheetId="6" hidden="1">'Sheet1 (3)'!$I$15</definedName>
+    <definedName name="solver_rhs16" localSheetId="5" hidden="1">Sheet1!$E$15</definedName>
+    <definedName name="solver_rhs16" localSheetId="7" hidden="1">'Sheet1 (2)'!$H$18</definedName>
+    <definedName name="solver_rhs16" localSheetId="6" hidden="1">'Sheet1 (3)'!$H$18</definedName>
+    <definedName name="solver_rhs17" localSheetId="5" hidden="1">Sheet1!$F$12</definedName>
+    <definedName name="solver_rhs17" localSheetId="7" hidden="1">'Sheet1 (2)'!$I$15</definedName>
+    <definedName name="solver_rhs17" localSheetId="6" hidden="1">'Sheet1 (3)'!$I$15</definedName>
+    <definedName name="solver_rhs18" localSheetId="5" hidden="1">Sheet1!$F$13</definedName>
+    <definedName name="solver_rhs18" localSheetId="7" hidden="1">'Sheet1 (2)'!$I$16</definedName>
+    <definedName name="solver_rhs18" localSheetId="6" hidden="1">'Sheet1 (3)'!$I$16</definedName>
+    <definedName name="solver_rhs19" localSheetId="5" hidden="1">Sheet1!$H$16</definedName>
+    <definedName name="solver_rhs19" localSheetId="7" hidden="1">'Sheet1 (2)'!$K$19</definedName>
+    <definedName name="solver_rhs19" localSheetId="6" hidden="1">'Sheet1 (3)'!$K$19</definedName>
+    <definedName name="solver_rhs2" localSheetId="5" hidden="1">Sheet1!$D$10:$D$16</definedName>
+    <definedName name="solver_rhs2" localSheetId="7" hidden="1">'Sheet1 (2)'!$H$7:$N$7</definedName>
+    <definedName name="solver_rhs2" localSheetId="6" hidden="1">'Sheet1 (3)'!$P$6</definedName>
+    <definedName name="solver_rhs2" localSheetId="2" hidden="1">Sheet3!$D$7*0.25</definedName>
+    <definedName name="solver_rhs2" localSheetId="1" hidden="1">'Sheet3 (2)'!$C$21:$D$21</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">'Sheet3 (3)'!$K$16:$L$17</definedName>
+    <definedName name="solver_rhs20" localSheetId="5" hidden="1">Sheet1!$H$10</definedName>
+    <definedName name="solver_rhs20" localSheetId="7" hidden="1">'Sheet1 (2)'!$K$13</definedName>
+    <definedName name="solver_rhs20" localSheetId="6" hidden="1">'Sheet1 (3)'!$K$13</definedName>
+    <definedName name="solver_rhs21" localSheetId="5" hidden="1">Sheet1!$H$11</definedName>
+    <definedName name="solver_rhs21" localSheetId="7" hidden="1">'Sheet1 (2)'!$K$14</definedName>
+    <definedName name="solver_rhs21" localSheetId="6" hidden="1">'Sheet1 (3)'!$K$14</definedName>
+    <definedName name="solver_rhs22" localSheetId="5" hidden="1">Sheet1!$H$12</definedName>
+    <definedName name="solver_rhs22" localSheetId="7" hidden="1">'Sheet1 (2)'!$K$15</definedName>
+    <definedName name="solver_rhs22" localSheetId="6" hidden="1">'Sheet1 (3)'!$K$15</definedName>
+    <definedName name="solver_rhs23" localSheetId="5" hidden="1">Sheet1!$H$13</definedName>
+    <definedName name="solver_rhs23" localSheetId="7" hidden="1">'Sheet1 (2)'!$K$16</definedName>
+    <definedName name="solver_rhs23" localSheetId="6" hidden="1">'Sheet1 (3)'!$K$16</definedName>
+    <definedName name="solver_rhs24" localSheetId="5" hidden="1">Sheet1!$H$14</definedName>
+    <definedName name="solver_rhs24" localSheetId="7" hidden="1">'Sheet1 (2)'!$K$17</definedName>
+    <definedName name="solver_rhs24" localSheetId="6" hidden="1">'Sheet1 (3)'!$K$17</definedName>
+    <definedName name="solver_rhs3" localSheetId="5" hidden="1">Sheet1!$N$6</definedName>
+    <definedName name="solver_rhs3" localSheetId="7" hidden="1">'Sheet1 (2)'!$H$8:$N$8</definedName>
+    <definedName name="solver_rhs3" localSheetId="6" hidden="1">'Sheet1 (3)'!$H$8:$N$8</definedName>
+    <definedName name="solver_rhs3" localSheetId="2" hidden="1">Sheet3!$C$10</definedName>
+    <definedName name="solver_rhs3" localSheetId="1" hidden="1">'Sheet3 (2)'!$L$16:$L$17</definedName>
+    <definedName name="solver_rhs3" localSheetId="0" hidden="1">'Sheet3 (3)'!$C$21:$D$21</definedName>
+    <definedName name="solver_rhs4" localSheetId="5" hidden="1">Sheet1!$F$14</definedName>
+    <definedName name="solver_rhs4" localSheetId="7" hidden="1">integer</definedName>
+    <definedName name="solver_rhs4" localSheetId="6" hidden="1">integer</definedName>
+    <definedName name="solver_rhs4" localSheetId="2" hidden="1">Sheet3!$D$5</definedName>
+    <definedName name="solver_rhs4" localSheetId="1" hidden="1">'Sheet3 (2)'!#REF!</definedName>
+    <definedName name="solver_rhs4" localSheetId="0" hidden="1">'Sheet3 (3)'!#REF!</definedName>
+    <definedName name="solver_rhs5" localSheetId="5" hidden="1">Sheet1!$E$11</definedName>
+    <definedName name="solver_rhs5" localSheetId="7" hidden="1">'Sheet1 (2)'!$H$14</definedName>
+    <definedName name="solver_rhs5" localSheetId="6" hidden="1">'Sheet1 (3)'!$H$14</definedName>
+    <definedName name="solver_rhs5" localSheetId="2" hidden="1">Sheet3!$D$5</definedName>
+    <definedName name="solver_rhs5" localSheetId="1" hidden="1">'Sheet3 (2)'!#REF!</definedName>
+    <definedName name="solver_rhs5" localSheetId="0" hidden="1">'Sheet3 (3)'!#REF!</definedName>
+    <definedName name="solver_rhs6" localSheetId="5" hidden="1">Sheet1!$F$15</definedName>
+    <definedName name="solver_rhs6" localSheetId="7" hidden="1">'Sheet1 (2)'!$I$18</definedName>
+    <definedName name="solver_rhs6" localSheetId="6" hidden="1">'Sheet1 (3)'!$I$18</definedName>
+    <definedName name="solver_rhs7" localSheetId="5" hidden="1">Sheet1!$F$16</definedName>
+    <definedName name="solver_rhs7" localSheetId="7" hidden="1">'Sheet1 (2)'!$I$19</definedName>
+    <definedName name="solver_rhs7" localSheetId="6" hidden="1">'Sheet1 (3)'!$I$19</definedName>
+    <definedName name="solver_rhs8" localSheetId="5" hidden="1">Sheet1!$C$10:$C$16</definedName>
+    <definedName name="solver_rhs8" localSheetId="7" hidden="1">'Sheet1 (2)'!$C$13:$C$19</definedName>
+    <definedName name="solver_rhs8" localSheetId="6" hidden="1">'Sheet1 (3)'!$C$13:$C$19</definedName>
+    <definedName name="solver_rhs9" localSheetId="5" hidden="1">Sheet1!$E$12</definedName>
+    <definedName name="solver_rhs9" localSheetId="7" hidden="1">'Sheet1 (2)'!$H$15</definedName>
+    <definedName name="solver_rhs9" localSheetId="6" hidden="1">'Sheet1 (3)'!$H$15</definedName>
+    <definedName name="solver_rlx" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_rlx" localSheetId="4" hidden="1">2</definedName>
-    <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="7" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
-    <definedName name="solver_rsd" localSheetId="4" hidden="1">0</definedName>
-    <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_scl" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_scl" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_sho" localSheetId="4" hidden="1">2</definedName>
-    <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="5" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="7" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="6" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
-    <definedName name="solver_ssz" localSheetId="4" hidden="1">100</definedName>
-    <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="5" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="7" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="6" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
-    <definedName name="solver_tim" localSheetId="4" hidden="1">2147483647</definedName>
-    <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="5" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="7" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="6" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
-    <definedName name="solver_tol" localSheetId="4" hidden="1">0.01</definedName>
-    <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
-    <definedName name="solver_typ" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_typ" localSheetId="4" hidden="1">2</definedName>
-    <definedName name="solver_typ" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="7" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
-    <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
-    <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="5" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="7" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="6" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
-    <definedName name="solver_ver" localSheetId="4" hidden="1">3</definedName>
-    <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -339,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="34">
   <si>
     <t>Gün</t>
   </si>
@@ -382,6 +511,66 @@
   <si>
     <t>Time</t>
   </si>
+  <si>
+    <t>bono</t>
+  </si>
+  <si>
+    <t>ev kredisi</t>
+  </si>
+  <si>
+    <t>araba kredisi</t>
+  </si>
+  <si>
+    <t>şahsi kredi</t>
+  </si>
+  <si>
+    <t>kazanç</t>
+  </si>
+  <si>
+    <t>toplam yatırım</t>
+  </si>
+  <si>
+    <t>Ürün</t>
+  </si>
+  <si>
+    <t>Kalite</t>
+  </si>
+  <si>
+    <t>Reklam</t>
+  </si>
+  <si>
+    <t>Fiyat</t>
+  </si>
+  <si>
+    <t>Gas</t>
+  </si>
+  <si>
+    <t>Yakıt</t>
+  </si>
+  <si>
+    <t>Hammadde</t>
+  </si>
+  <si>
+    <t>Stok</t>
+  </si>
+  <si>
+    <t>Oil1</t>
+  </si>
+  <si>
+    <t>Oil2</t>
+  </si>
+  <si>
+    <t>g1</t>
+  </si>
+  <si>
+    <t>g2</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
 </sst>
 </file>
 
@@ -391,7 +580,7 @@
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -425,8 +614,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -442,6 +639,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,7 +707,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -523,6 +738,15 @@
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -837,19 +1061,1046 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6CA5DAD-EE05-4F5D-897D-978D76651A58}">
+  <dimension ref="A3:P44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4">
+        <v>0.4</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0.7</v>
+      </c>
+      <c r="E5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8">
+        <v>80</v>
+      </c>
+      <c r="D8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9">
+        <v>100</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N15" t="s">
+        <v>32</v>
+      </c>
+      <c r="O15" t="s">
+        <v>33</v>
+      </c>
+      <c r="P15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="9">
+        <v>80</v>
+      </c>
+      <c r="D16" s="9">
+        <v>100</v>
+      </c>
+      <c r="E16">
+        <f>SUM(C16:D16)</f>
+        <v>180</v>
+      </c>
+      <c r="G16">
+        <v>0.4</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>70</v>
+      </c>
+      <c r="K16">
+        <f>+G16*E16</f>
+        <v>72</v>
+      </c>
+      <c r="L16">
+        <f>+H16*E16</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="16">
+        <f>+G16*E16</f>
+        <v>72</v>
+      </c>
+      <c r="O16" s="16">
+        <f>+H16*E16</f>
+        <v>0</v>
+      </c>
+      <c r="P16" s="16">
+        <f>+E16*I16</f>
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="9">
+        <v>0</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <f>SUM(C17:D17)</f>
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0.7</v>
+      </c>
+      <c r="I17">
+        <v>40</v>
+      </c>
+      <c r="K17">
+        <f>+G17*E17</f>
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <f>+H17*E17</f>
+        <v>0</v>
+      </c>
+      <c r="N17" s="16">
+        <f>+G17*E17</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="16">
+        <f>+H17*E17</f>
+        <v>0</v>
+      </c>
+      <c r="P17" s="16">
+        <f>+E17*I17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="C18">
+        <f>SUM(C16:C17)</f>
+        <v>80</v>
+      </c>
+      <c r="D18">
+        <f>SUM(D16:D17)</f>
+        <v>100</v>
+      </c>
+      <c r="P18">
+        <f>SUM(P16:P17)</f>
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="P20" s="18">
+        <f>+P18- E24</f>
+        <v>10400</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21">
+        <v>80</v>
+      </c>
+      <c r="D21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22">
+        <v>15</v>
+      </c>
+      <c r="D22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <f>+C18*C22</f>
+        <v>1200</v>
+      </c>
+      <c r="D24">
+        <f>+D18*D22</f>
+        <v>1000</v>
+      </c>
+      <c r="E24" s="17">
+        <f>SUM(C24:D24)</f>
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="E25" s="17"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="C34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" t="s">
+        <v>33</v>
+      </c>
+      <c r="G34" t="s">
+        <v>32</v>
+      </c>
+      <c r="H34" t="s">
+        <v>33</v>
+      </c>
+      <c r="I34" t="s">
+        <v>23</v>
+      </c>
+      <c r="N34" t="s">
+        <v>32</v>
+      </c>
+      <c r="O34" t="s">
+        <v>33</v>
+      </c>
+      <c r="P34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="9">
+        <v>79</v>
+      </c>
+      <c r="D35" s="9">
+        <v>97</v>
+      </c>
+      <c r="E35">
+        <f>SUM(C35:D35)</f>
+        <v>176</v>
+      </c>
+      <c r="G35">
+        <v>0.4</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>70</v>
+      </c>
+      <c r="K35">
+        <f>+G35*E35</f>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="L35">
+        <f>+H35*E35</f>
+        <v>0</v>
+      </c>
+      <c r="N35" s="16">
+        <f>+G35*E35</f>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="O35" s="16">
+        <f>+H35*E35</f>
+        <v>0</v>
+      </c>
+      <c r="P35" s="16">
+        <f>+E35*I35</f>
+        <v>12320</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B36" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="9">
+        <v>1</v>
+      </c>
+      <c r="D36" s="9">
+        <v>3</v>
+      </c>
+      <c r="E36">
+        <f>SUM(C36:D36)</f>
+        <v>4</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0.7</v>
+      </c>
+      <c r="I36">
+        <v>40</v>
+      </c>
+      <c r="K36">
+        <f>+G36*E36</f>
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <f>+H36*E36</f>
+        <v>2.8</v>
+      </c>
+      <c r="N36" s="16">
+        <f>+G36*E36</f>
+        <v>0</v>
+      </c>
+      <c r="O36" s="16">
+        <f>+H36*E36</f>
+        <v>2.8</v>
+      </c>
+      <c r="P36" s="16">
+        <f>+E36*I36</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="C37">
+        <f>SUM(C35:C36)</f>
+        <v>80</v>
+      </c>
+      <c r="D37">
+        <f>SUM(D35:D36)</f>
+        <v>100</v>
+      </c>
+      <c r="P37">
+        <f>SUM(P35:P36)</f>
+        <v>12480</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="P39" s="18">
+        <f>+P37- E43</f>
+        <v>10280</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B40" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40">
+        <v>80</v>
+      </c>
+      <c r="D40">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41">
+        <v>15</v>
+      </c>
+      <c r="D41">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B43" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43">
+        <f>+C37*C41</f>
+        <v>1200</v>
+      </c>
+      <c r="D43">
+        <f>+D37*D41</f>
+        <v>1000</v>
+      </c>
+      <c r="E43" s="17">
+        <f>SUM(C43:D43)</f>
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="E44" s="17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3734A54D-D05F-49E4-86C5-BD01D22E0381}">
+  <dimension ref="A3:N40"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8">
+        <v>5000</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9">
+        <v>10000</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" t="s">
+        <v>22</v>
+      </c>
+      <c r="N15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="9">
+        <v>3000</v>
+      </c>
+      <c r="D16" s="9">
+        <v>2000</v>
+      </c>
+      <c r="E16">
+        <f>SUM(C16:D16)</f>
+        <v>5000</v>
+      </c>
+      <c r="G16">
+        <v>8</v>
+      </c>
+      <c r="H16">
+        <v>5</v>
+      </c>
+      <c r="I16">
+        <v>25</v>
+      </c>
+      <c r="L16" s="16">
+        <f>+E16*G16</f>
+        <v>40000</v>
+      </c>
+      <c r="M16" s="16">
+        <f>+E16/H16</f>
+        <v>1000</v>
+      </c>
+      <c r="N16" s="16">
+        <f>+E16*I16</f>
+        <v>125000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="9">
+        <v>2000</v>
+      </c>
+      <c r="D17" s="9">
+        <v>8000</v>
+      </c>
+      <c r="E17">
+        <f>SUM(C17:D17)</f>
+        <v>10000</v>
+      </c>
+      <c r="G17">
+        <v>6</v>
+      </c>
+      <c r="H17">
+        <v>10</v>
+      </c>
+      <c r="I17">
+        <v>20</v>
+      </c>
+      <c r="L17" s="16">
+        <f>+E17*G17</f>
+        <v>60000</v>
+      </c>
+      <c r="M17" s="16">
+        <f>+E17/H17</f>
+        <v>1000</v>
+      </c>
+      <c r="N17" s="16">
+        <f>+E17*I17</f>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C18">
+        <f>SUM(C16:C17)</f>
+        <v>5000</v>
+      </c>
+      <c r="D18">
+        <f>SUM(D16:D17)</f>
+        <v>10000</v>
+      </c>
+      <c r="M18">
+        <f>SUM(M16:M17)</f>
+        <v>2000</v>
+      </c>
+      <c r="N18">
+        <f>SUM(N16:N17)</f>
+        <v>325000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N20" s="18">
+        <f>+N18-M18</f>
+        <v>323000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21">
+        <v>5000</v>
+      </c>
+      <c r="D21">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24">
+        <f>+C16*C22</f>
+        <v>30000</v>
+      </c>
+      <c r="D24">
+        <f>+D16*D22</f>
+        <v>10000</v>
+      </c>
+      <c r="E24" s="17">
+        <f>SUM(C24:D24)</f>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25">
+        <f>+C17*C22</f>
+        <v>20000</v>
+      </c>
+      <c r="D25">
+        <f>+D17*D22</f>
+        <v>40000</v>
+      </c>
+      <c r="E25" s="17">
+        <f>SUM(C25:D25)</f>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C30" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" t="s">
+        <v>29</v>
+      </c>
+      <c r="G30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30" t="s">
+        <v>22</v>
+      </c>
+      <c r="I30" t="s">
+        <v>23</v>
+      </c>
+      <c r="L30" t="s">
+        <v>21</v>
+      </c>
+      <c r="M30" t="s">
+        <v>22</v>
+      </c>
+      <c r="N30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="9">
+        <v>3000</v>
+      </c>
+      <c r="D31" s="9">
+        <v>20000</v>
+      </c>
+      <c r="E31">
+        <f>SUM(C31:D31)</f>
+        <v>23000</v>
+      </c>
+      <c r="G31">
+        <v>8</v>
+      </c>
+      <c r="H31">
+        <v>5</v>
+      </c>
+      <c r="I31">
+        <v>25</v>
+      </c>
+      <c r="L31" s="16">
+        <f>+E31*G31</f>
+        <v>184000</v>
+      </c>
+      <c r="M31" s="16">
+        <f>+E31/H31</f>
+        <v>4600</v>
+      </c>
+      <c r="N31" s="16">
+        <f>+E31*I31</f>
+        <v>575000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="9">
+        <v>1</v>
+      </c>
+      <c r="D32" s="9">
+        <v>4</v>
+      </c>
+      <c r="E32">
+        <f>SUM(C32:D32)</f>
+        <v>5</v>
+      </c>
+      <c r="G32">
+        <v>6</v>
+      </c>
+      <c r="H32">
+        <v>10</v>
+      </c>
+      <c r="I32">
+        <v>20</v>
+      </c>
+      <c r="L32" s="16">
+        <f>+E32*G32</f>
+        <v>30</v>
+      </c>
+      <c r="M32" s="16">
+        <f>+E32/H32</f>
+        <v>0.5</v>
+      </c>
+      <c r="N32" s="16">
+        <f>+E32*I32</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C33">
+        <f>SUM(C31:C32)</f>
+        <v>3001</v>
+      </c>
+      <c r="D33">
+        <f>SUM(D31:D32)</f>
+        <v>20004</v>
+      </c>
+      <c r="M33">
+        <f>SUM(M31:M32)</f>
+        <v>4600.5</v>
+      </c>
+      <c r="N33">
+        <f>SUM(N31:N32)</f>
+        <v>575100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N35" s="18">
+        <f>+N33-M33</f>
+        <v>570499.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36">
+        <v>5000</v>
+      </c>
+      <c r="D36">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37">
+        <v>10</v>
+      </c>
+      <c r="D37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39">
+        <f>+C31*C37</f>
+        <v>30000</v>
+      </c>
+      <c r="D39">
+        <f>+D31*D37</f>
+        <v>100000</v>
+      </c>
+      <c r="E39" s="17">
+        <f>SUM(C39:D39)</f>
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40">
+        <f>+C32*C38</f>
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <f>+D32*D38</f>
+        <v>0</v>
+      </c>
+      <c r="E40" s="17">
+        <f>SUM(C40:D40)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FCEF7D8-4EE4-4847-BDBA-802CFF0F5467}">
+  <dimension ref="B2:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B3" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="D3" s="15">
+        <v>0</v>
+      </c>
+      <c r="E3" s="14">
+        <f>+C3*D3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="14">
+        <v>0.16</v>
+      </c>
+      <c r="D4" s="15">
+        <v>431034.48275862064</v>
+      </c>
+      <c r="E4" s="14">
+        <f>+C4*D4</f>
+        <v>68965.517241379304</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B5" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="14">
+        <v>0.13</v>
+      </c>
+      <c r="D5" s="15">
+        <v>68965.517241379304</v>
+      </c>
+      <c r="E5" s="14">
+        <f>+C5*D5</f>
+        <v>8965.5172413793098</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B6" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="D6" s="15">
+        <v>0</v>
+      </c>
+      <c r="E6" s="14">
+        <f t="shared" ref="E6" si="0">+C6*D6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14">
+        <f>SUM(D3:D6)</f>
+        <v>499999.99999999994</v>
+      </c>
+      <c r="E7" s="14">
+        <f>SUM(E3:E6)</f>
+        <v>77931.034482758609</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B10" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="14">
+        <v>500000</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A33670E-EFB2-40A9-A1C1-E829336FCF4C}">
   <dimension ref="A2:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="13">
         <v>36989</v>
       </c>
@@ -857,7 +2108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="13">
         <v>37118</v>
       </c>
@@ -865,7 +2116,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="13">
         <v>37271</v>
       </c>
@@ -873,7 +2124,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="13">
         <v>37432</v>
       </c>
@@ -881,7 +2132,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="13">
         <v>37805</v>
       </c>
@@ -889,19 +2140,19 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E7">
         <f>+XNPV(0.1,B2:B6,A2:A6)</f>
         <v>920.62821695709704</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D9" s="11"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D11" s="11"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
@@ -915,7 +2166,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB8F60F-19CF-4207-995C-10962A4E1F18}">
   <dimension ref="C1:J15"/>
   <sheetViews>
@@ -923,14 +2174,14 @@
       <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:10" x14ac:dyDescent="0.35">
       <c r="D1">
         <v>0.15</v>
       </c>
     </row>
-    <row r="3" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C3" t="s">
         <v>13</v>
       </c>
@@ -956,7 +2207,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:10" x14ac:dyDescent="0.35">
       <c r="D4">
         <v>-400</v>
       </c>
@@ -979,19 +2230,19 @@
         <v>230</v>
       </c>
     </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:10" x14ac:dyDescent="0.35">
       <c r="D8" s="11">
         <f>+NPV(D1,D4:J4)</f>
         <v>375.05861838678885</v>
       </c>
     </row>
-    <row r="10" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:10" x14ac:dyDescent="0.35">
       <c r="D10" s="11">
         <f>+NPV(D1,D4)</f>
         <v>-347.82608695652175</v>
       </c>
     </row>
-    <row r="15" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:10" x14ac:dyDescent="0.35">
       <c r="D15" s="12">
         <f>D4/(1+0.15)^D3</f>
         <v>-347.82608695652175</v>
@@ -1026,7 +2277,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D923B829-6076-4FD9-95DB-2E247C909AD9}">
   <dimension ref="A2:N16"/>
   <sheetViews>
@@ -1034,9 +2285,9 @@
       <selection activeCell="F10" sqref="F10:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D2" t="s">
         <v>9</v>
       </c>
@@ -1045,8 +2296,8 @@
         <v>350</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="E5" s="5" t="s">
         <v>2</v>
@@ -1070,7 +2321,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="D6" t="s">
         <v>10</v>
@@ -1105,7 +2356,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="D7" t="s">
         <v>11</v>
@@ -1136,10 +2387,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:14" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="3" t="s">
         <v>0</v>
@@ -1148,7 +2399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4">
         <v>0</v>
       </c>
@@ -1175,7 +2426,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="6">
         <v>1</v>
       </c>
@@ -1202,7 +2453,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4">
         <v>2</v>
       </c>
@@ -1229,7 +2480,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="6">
         <v>3</v>
       </c>
@@ -1256,7 +2507,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4">
         <v>4</v>
       </c>
@@ -1283,7 +2534,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="6">
         <v>5</v>
       </c>
@@ -1310,7 +2561,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>6</v>
       </c>
@@ -1342,7 +2593,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F8F3B4B-3997-4589-AFD1-86C4C745A8CB}">
   <dimension ref="A2:R23"/>
   <sheetViews>
@@ -1350,9 +2601,9 @@
       <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="G2" t="s">
         <v>9</v>
       </c>
@@ -1361,8 +2612,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="H5" s="5" t="s">
         <v>2</v>
@@ -1386,7 +2637,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="G6" s="10" t="s">
         <v>12</v>
@@ -1420,7 +2671,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
@@ -1435,7 +2686,7 @@
       <c r="Q7" s="10"/>
       <c r="R7" s="10"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -1450,7 +2701,7 @@
       <c r="Q8" s="10"/>
       <c r="R8" s="10"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -1465,7 +2716,7 @@
       <c r="Q9" s="10"/>
       <c r="R9" s="10"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
@@ -1480,7 +2731,7 @@
       <c r="Q10" s="10"/>
       <c r="R10" s="10"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -1495,7 +2746,7 @@
       <c r="Q11" s="10"/>
       <c r="R11" s="10"/>
     </row>
-    <row r="12" spans="1:18" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
       <c r="B12" s="3" t="s">
         <v>0</v>
@@ -1516,7 +2767,7 @@
       <c r="Q12" s="10"/>
       <c r="R12" s="10"/>
     </row>
-    <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4">
         <v>0</v>
       </c>
@@ -1543,7 +2794,7 @@
       <c r="Q13" s="10"/>
       <c r="R13" s="10"/>
     </row>
-    <row r="14" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="6">
         <v>1</v>
       </c>
@@ -1570,7 +2821,7 @@
       <c r="Q14" s="10"/>
       <c r="R14" s="10"/>
     </row>
-    <row r="15" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4">
         <v>2</v>
       </c>
@@ -1597,7 +2848,7 @@
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
     </row>
-    <row r="16" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="6">
         <v>3</v>
       </c>
@@ -1624,7 +2875,7 @@
       <c r="Q16" s="10"/>
       <c r="R16" s="10"/>
     </row>
-    <row r="17" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4">
         <v>4</v>
       </c>
@@ -1651,7 +2902,7 @@
       <c r="Q17" s="10"/>
       <c r="R17" s="10"/>
     </row>
-    <row r="18" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="6">
         <v>5</v>
       </c>
@@ -1678,7 +2929,7 @@
       <c r="Q18" s="10"/>
       <c r="R18" s="10"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
         <v>6</v>
       </c>
@@ -1705,7 +2956,7 @@
       <c r="Q19" s="10"/>
       <c r="R19" s="10"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
@@ -1719,7 +2970,7 @@
       <c r="Q20" s="10"/>
       <c r="R20" s="10"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
@@ -1733,7 +2984,7 @@
       <c r="Q21" s="10"/>
       <c r="R21" s="10"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
@@ -1747,7 +2998,7 @@
       <c r="Q22" s="10"/>
       <c r="R22" s="10"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
@@ -1767,7 +3018,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{153E535B-E06A-41F4-B7A1-18496F9FB6D3}">
   <dimension ref="A2:P19"/>
   <sheetViews>
@@ -1775,9 +3026,9 @@
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="G2" t="s">
         <v>9</v>
       </c>
@@ -1786,7 +3037,7 @@
         <v>2992</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="H4">
         <f>H7+H8</f>
         <v>8</v>
@@ -1816,7 +3067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="H5" s="5" t="s">
         <v>2</v>
@@ -1840,7 +3091,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="G6" s="10" t="s">
         <v>12</v>
@@ -1875,7 +3126,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="G7" s="10"/>
       <c r="H7" s="8">
@@ -1900,7 +3151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
       <c r="G8" s="10"/>
       <c r="H8" s="8">
@@ -1925,7 +3176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
       <c r="G9" s="5" t="s">
         <v>2</v>
@@ -1947,7 +3198,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
       <c r="G10" s="7" t="s">
         <v>3</v>
@@ -1969,7 +3220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
       <c r="G11" s="5" t="s">
         <v>4</v>
@@ -1991,7 +3242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
       <c r="B12" s="3" t="s">
         <v>0</v>
@@ -2019,7 +3270,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4">
         <v>0</v>
       </c>
@@ -2053,7 +3304,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="6">
         <v>1</v>
       </c>
@@ -2087,7 +3338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4">
         <v>2</v>
       </c>
@@ -2121,7 +3372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="6">
         <v>3</v>
       </c>
@@ -2164,7 +3415,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4">
         <v>4</v>
       </c>
@@ -2179,7 +3430,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="6">
         <v>5</v>
       </c>
@@ -2194,7 +3445,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
         <v>6</v>
       </c>
